--- a/LAB ELETTRONICA.xlsx
+++ b/LAB ELETTRONICA.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38f588b552f918fe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38f588b552f918fe/Documenti/Lectures/Lab elettronica/Amplificatore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AF7681E6-7AB2-4356-BC69-C119FF3E4F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B64E81-BFA1-4C29-8063-AC4B80FD0B58}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{AF7681E6-7AB2-4356-BC69-C119FF3E4F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF653AF8-2536-4B12-9A0C-F1A0FF5FCE36}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
   </bookViews>
   <sheets>
     <sheet name="Non invertente" sheetId="1" r:id="rId1"/>
     <sheet name="Invertente 1" sheetId="2" r:id="rId2"/>
     <sheet name="Invertente 10" sheetId="3" r:id="rId3"/>
     <sheet name="Integratore" sheetId="4" r:id="rId4"/>
-    <sheet name="Derivatore" sheetId="5" r:id="rId5"/>
-    <sheet name="Logaritmico" sheetId="6" r:id="rId6"/>
+    <sheet name="Logaritmico" sheetId="6" r:id="rId5"/>
+    <sheet name="Derivatore" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>rf</t>
   </si>
@@ -54,16 +54,7 @@
     <t>guadagno</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
     <t>freq (Kh)</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>us</t>
   </si>
   <si>
     <t>vin (mV)</t>
@@ -99,51 +90,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>100 ms</t>
-  </si>
-  <si>
-    <t>0,005</t>
-  </si>
-  <si>
-    <t>1,96</t>
-  </si>
-  <si>
-    <t>25 ms</t>
-  </si>
-  <si>
-    <t>10 ms</t>
-  </si>
-  <si>
-    <t>0,05</t>
-  </si>
-  <si>
-    <t>250 micro</t>
-  </si>
-  <si>
-    <t>1,73</t>
-  </si>
-  <si>
-    <t>1,52</t>
-  </si>
-  <si>
-    <t>1,32</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>656 mv</t>
-  </si>
-  <si>
-    <t>1 v</t>
-  </si>
-  <si>
-    <t>800 mv</t>
-  </si>
-  <si>
-    <t>500 n</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -168,9 +114,6 @@
     <t>guadagno aspettato a fhf</t>
   </si>
   <si>
-    <t>mv</t>
-  </si>
-  <si>
     <t>R''</t>
   </si>
   <si>
@@ -185,12 +128,36 @@
   <si>
     <t>V in (V)</t>
   </si>
+  <si>
+    <t>vout (V)</t>
+  </si>
+  <si>
+    <t>vout/div (V)</t>
+  </si>
+  <si>
+    <t>err vout (V)</t>
+  </si>
+  <si>
+    <t>t/div (ms)</t>
+  </si>
+  <si>
+    <t>errg</t>
+  </si>
+  <si>
+    <t>dati</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +175,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -271,7 +246,22 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -281,7 +271,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -293,19 +296,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
@@ -1104,6 +1118,410 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Invertente 10'!$J$9:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Invertente 10'!$I$9:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4230769230769234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1603773584905657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1028037383177569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.954954954954955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9099099099099097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5135135135135136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9464285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77477477477477474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8A8E-4A0E-95FD-35E7BDA0EE57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466463312"/>
+        <c:axId val="466464624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466463312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466464624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466464624"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466463312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1167,7 +1585,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Integratore!$K$14:$K$45</c:f>
+              <c:f>Integratore!$J$14:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1248,7 +1666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Integratore!$J$14:$J$44</c:f>
+              <c:f>Integratore!$I$14:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1298,7 +1716,7 @@
                   <c:v>4.3243243243243246</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4594594594594597</c:v>
+                  <c:v>3.4594594594594592</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.0769230769230771</c:v>
@@ -1307,22 +1725,22 @@
                   <c:v>2.1346153846153846</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.625</c:v>
+                  <c:v>1.6250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0961538461538463</c:v>
+                  <c:v>1.096153846153846</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.56730769230769229</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.17254901960784316</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.8461538461538453E-2</c:v>
+                  <c:v>8.8461538461538466E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,6 +2061,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2676,6 +3134,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3278,12 +4252,53 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C345B77F-F277-4940-94E9-4ACF26C3BB29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>433387</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -3631,640 +4646,640 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="I2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.98899999999999999</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>616</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>200</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f>B10/5</f>
         <v>40</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1220</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f>F10/5</f>
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <f>E10/A10</f>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:I23" si="0">E10/A10</f>
         <v>1.9805194805194806</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>250000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f>K10/5</f>
         <v>50000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f>J10^2*L10*10^-6</f>
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>640</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>100</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:C23" si="0">B11/5</f>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C23" si="1">B11/5</f>
         <v>20</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1230</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>200</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11:G23" si="1">F11/5</f>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:G23" si="2">F11/5</f>
         <v>40</v>
       </c>
-      <c r="I11" s="3">
-        <f>E11/A11</f>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
         <v>1.921875</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>50000</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" ref="L11:L23" si="2">K11/5</f>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11:L23" si="3">K11/5</f>
         <v>10000</v>
       </c>
-      <c r="M11" s="3">
-        <f t="shared" ref="M11:M23" si="3">J11^2*L11*10^-6</f>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11:M23" si="4">J11^2*L11*10^-6</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>650</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>100</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1240</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
+        <v>1.9076923076923078</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>25000</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>672</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E12" s="3">
-        <v>1240</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E13" s="2">
+        <v>1260</v>
+      </c>
+      <c r="F13" s="2">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="J13" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>672</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I12" s="3">
-        <f>E12/A12</f>
-        <v>1.9076923076923078</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8601190476190477</v>
+      </c>
+      <c r="J14" s="2">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>684</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1160</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.695906432748538</v>
+      </c>
+      <c r="J15" s="2">
+        <v>200</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>688</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>950</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3808139534883721</v>
+      </c>
+      <c r="J16" s="2">
+        <v>300</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>700</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>744</v>
+      </c>
+      <c r="F17" s="2">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0628571428571429</v>
+      </c>
+      <c r="J17" s="2">
+        <v>400</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>684</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1220</v>
+      </c>
+      <c r="F18" s="2">
+        <v>200</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7836257309941521</v>
+      </c>
+      <c r="J18" s="2">
+        <v>150</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>688</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>608</v>
+      </c>
+      <c r="F19" s="2">
+        <v>200</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="J19" s="2">
+        <v>500</v>
+      </c>
+      <c r="K19" s="2">
+        <v>500</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>680</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>290</v>
+      </c>
+      <c r="F20" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K12" s="3">
-        <v>25000</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>672</v>
-      </c>
-      <c r="B13" s="3">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1260</v>
-      </c>
-      <c r="F13" s="3">
-        <v>200</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I13" s="3">
-        <f>E13/A13</f>
-        <v>1.875</v>
-      </c>
-      <c r="J13" s="3">
-        <v>50</v>
-      </c>
-      <c r="K13" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>672</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1250</v>
-      </c>
-      <c r="F14" s="3">
-        <v>200</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I14" s="3">
-        <f>E14/A14</f>
-        <v>1.8601190476190477</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>684</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1160</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I15" s="3">
-        <f>E15/A15</f>
-        <v>1.695906432748538</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3">
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="J20" s="2">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>688</v>
-      </c>
-      <c r="B16" s="3">
-        <v>100</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E16" s="3">
-        <v>950</v>
-      </c>
-      <c r="F16" s="3">
-        <v>200</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I16" s="3">
-        <f>E16/A16</f>
-        <v>1.3808139534883721</v>
-      </c>
-      <c r="J16" s="3">
-        <v>300</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>700</v>
-      </c>
-      <c r="B17" s="3">
-        <v>100</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E17" s="3">
-        <v>744</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I17" s="3">
-        <f>E17/A17</f>
-        <v>1.0628571428571429</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>684</v>
-      </c>
-      <c r="B18" s="3">
-        <v>100</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1220</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I18" s="3">
-        <f>E18/A18</f>
-        <v>1.7836257309941521</v>
-      </c>
-      <c r="J18" s="3">
-        <v>150</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>688</v>
-      </c>
-      <c r="B19" s="3">
-        <v>100</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E19" s="3">
-        <v>608</v>
-      </c>
-      <c r="F19" s="3">
-        <v>200</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I19" s="3">
-        <f>E19/A19</f>
-        <v>0.88372093023255816</v>
-      </c>
-      <c r="J19" s="3">
-        <v>500</v>
-      </c>
-      <c r="K19" s="3">
-        <v>500</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>680</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E20" s="3">
-        <v>290</v>
-      </c>
-      <c r="F20" s="3">
-        <v>50</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I20" s="3">
-        <f>E20/A20</f>
-        <v>0.4264705882352941</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>250</v>
       </c>
-      <c r="L20" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
+      <c r="M20" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>688</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>100</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E21" s="3">
-        <v>152</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I21" s="3">
-        <f>E21/A21</f>
+      <c r="E21" s="2">
+        <v>152</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
         <v>0.22093023255813954</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>250</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>696</v>
+      </c>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>832</v>
+      </c>
+      <c r="F22" s="2">
+        <v>200</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="M21" s="3">
+        <v>40</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1954022988505748</v>
+      </c>
+      <c r="J22" s="2">
+        <v>350</v>
+      </c>
+      <c r="K22" s="2">
+        <v>500</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>688</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1060</v>
+      </c>
+      <c r="F23" s="2">
+        <v>200</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5406976744186047</v>
+      </c>
+      <c r="J23" s="2">
+        <v>250</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>696</v>
-      </c>
-      <c r="B22" s="3">
-        <v>100</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E22" s="3">
-        <v>832</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I22" s="3">
-        <f>E22/A22</f>
-        <v>1.1954022988505748</v>
-      </c>
-      <c r="J22" s="3">
-        <v>350</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="3"/>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>688</v>
-      </c>
-      <c r="B23" s="3">
-        <v>100</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1060</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I23" s="3">
-        <f>E23/A23</f>
-        <v>1.5406976744186047</v>
-      </c>
-      <c r="J23" s="3">
-        <v>250</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="3"/>
+      <c r="M23" s="2">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
     </row>
@@ -4295,693 +5310,693 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.98899999999999999</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>624</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>200</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>40</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>640</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>40</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1.0256410256410255</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1E-3</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>100000000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f>K10/5</f>
         <v>20000000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f>J10^2*L10*10^-6</f>
         <v>1.9999999999999998E-5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>640</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>200</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>40</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>640</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>200</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>40</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.05</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>2500000</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f t="shared" ref="L11:L25" si="0">K11/5</f>
         <v>500000</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <f t="shared" ref="M11:M26" si="1">J11^2*L11*10^-6</f>
         <v>1.2500000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>640</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>40</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>632</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>40</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>0.98750000000000004</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>100000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>656</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>200</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>40</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>624</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>200</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>40</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.95121951219512191</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>50</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>2500</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>624</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>200</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>40</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0.96153846153846156</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>50</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>624</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>200</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>40</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>592</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>40</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.94871794871794868</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>632</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>200</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>40</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>596</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>200</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>40</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.94303797468354433</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>150</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>1000</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>632</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>200</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>544</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>40</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>0.86075949367088611</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>648</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>200</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>40</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>432</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>40</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>250</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>648</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>200</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>40</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>340</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>100</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>20</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>0.52469135802469136</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>600</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>250</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>648</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>200</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>40</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>280</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>20</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>0.43209876543209874</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>950</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>250</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>45.125</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>648</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>200</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>40</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>251</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>20</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0.38734567901234568</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>250</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>648</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>200</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>40</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>196</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>50</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>0.30246913580246915</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>648</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>200</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>40</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>172</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>50</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>10</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>0.26543209876543211</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>648</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>200</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>40</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>142</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>50</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>10</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>0.2191358024691358</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>648</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>200</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>40</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>94</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>50</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>10</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>0.14506172839506173</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>4000</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>50</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>642</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>100</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>20</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>488</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>20</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>0.76012461059190028</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f>K26/5</f>
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -4994,20 +6009,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F8092-FBF0-4B0A-9B08-F3B77FB1574B}">
-  <dimension ref="A3:M27"/>
+  <dimension ref="A3:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>9.91</v>
@@ -5016,9 +6034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.99</v>
@@ -5027,719 +6045,1195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>200</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9/5</f>
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="E9" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <f>F9/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="15">
+        <f>E9/A9*1000</f>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="L9" s="2">
+        <f>K9/5</f>
+        <v>20000000</v>
+      </c>
+      <c r="M9" s="17">
+        <f>J9^2*L9*10^-6</f>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="N9" s="19">
+        <f>1/A9*C9+E9*1000/A9^2*G9*1000</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>200</v>
+      </c>
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:C27" si="0">B10/5</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G27" si="1">F10/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:I27" si="2">E10/A10*1000</f>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L24" si="3">K10/5</f>
+        <v>5000000</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" ref="M10:M27" si="4">J10^2*L10*10^-6</f>
+        <v>1.25E-4</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10:N27" si="5">1/A10*C10+E10*1000/A10^2*G10*1000</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>200</v>
+      </c>
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="M11" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="5"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000002E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="5"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>200</v>
+      </c>
+      <c r="B13" s="2">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="M13" s="17">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="5"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>200</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>250000</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="5"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>200</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="5"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>208</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="2"/>
+        <v>9.4230769230769234</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>25000</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="5"/>
+        <v>4.578402366863906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>210</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="J17" s="2">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>4.4920634920634921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>212</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="2"/>
+        <v>8.1603773584905657</v>
+      </c>
+      <c r="J18" s="2">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="5"/>
+        <v>3.8964044143823426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>214</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="2"/>
+        <v>7.1028037383177569</v>
+      </c>
+      <c r="J19" s="2">
+        <v>75</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="4"/>
+        <v>5.625</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3743558389378985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>216</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="2"/>
+        <v>6.1111111111111116</v>
+      </c>
+      <c r="J20" s="2">
+        <v>100</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.17798353909465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="2"/>
+        <v>2.954954954954955</v>
+      </c>
+      <c r="J21" s="2">
+        <v>250</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.57746936125314507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>220</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="2"/>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="J22" s="2">
+        <v>150</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87190082644628109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>220</v>
+      </c>
+      <c r="B23" s="2">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="J23" s="2">
+        <v>200</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.70661157024793386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="2"/>
+        <v>1.9099099099099097</v>
+      </c>
+      <c r="J24" s="2">
+        <v>400</v>
+      </c>
+      <c r="K24" s="2">
+        <v>500</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>200</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21710900089278468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>222</v>
+      </c>
+      <c r="B25" s="8">
         <v>50</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3">
-        <v>1.88</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5135135135135136</v>
+      </c>
+      <c r="J25" s="2">
         <v>500</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="I9" s="3">
-        <f>E9/A9</f>
-        <v>9.3999999999999986E-3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="e">
-        <f>K9/5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="3" t="e">
-        <f>J9^2*L9*10^-6</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>200</v>
-      </c>
-      <c r="B10" s="3">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="K25" s="2">
         <v>500</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3" t="e">
-        <f t="shared" ref="I10:I27" si="0">E10/A10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" ref="L10:L24" si="1">K10/5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="3" t="e">
-        <f t="shared" ref="M10:M27" si="2">J10^2*L10*10^-6</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>200</v>
-      </c>
-      <c r="B11" s="3">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="F11" s="3">
-        <v>500</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>200</v>
-      </c>
-      <c r="B12" s="3">
-        <v>50</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>200</v>
-      </c>
-      <c r="B13" s="3">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3">
-        <v>500</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="I13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000005E-9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>200</v>
-      </c>
-      <c r="B14" s="3">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="E14" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="F14" s="3">
-        <v>500</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>200</v>
-      </c>
-      <c r="B15" s="3">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="I15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>208</v>
-      </c>
-      <c r="B16" s="3">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3">
-        <v>500</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="I16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>25</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="2"/>
-        <v>1.25E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>210</v>
-      </c>
-      <c r="B17" s="3">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="I17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="3">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>212</v>
-      </c>
-      <c r="B18" s="3">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3">
-        <v>500</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="I18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="3">
-        <v>50</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>214</v>
-      </c>
-      <c r="B19" s="3">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3">
-        <v>200</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="I19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="3">
-        <v>75</v>
-      </c>
-      <c r="K19" s="3">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6249999999999998E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>216</v>
-      </c>
-      <c r="B20" s="3">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="I20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>222</v>
-      </c>
-      <c r="B21" s="3">
-        <v>50</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="I21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="3">
-        <v>250</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>220</v>
-      </c>
-      <c r="B22" s="3">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="I22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" s="3">
-        <v>150</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>220</v>
-      </c>
-      <c r="B23" s="3">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="I23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>222</v>
-      </c>
-      <c r="B24" s="3">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="E24" s="3">
-        <v>424</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9099099099099099</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M24" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>222</v>
-      </c>
-      <c r="B25" s="3">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3">
-        <v>336</v>
-      </c>
-      <c r="F25" s="3">
-        <v>50</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5135135135135136</v>
-      </c>
-      <c r="J25" s="3">
-        <v>500</v>
-      </c>
-      <c r="K25" s="3">
-        <v>500</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f>K25/5</f>
         <v>100</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="17">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11322132943754566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>224</v>
+      </c>
+      <c r="B26" s="5">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="15">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>224</v>
-      </c>
-      <c r="B26" s="7">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>212</v>
-      </c>
-      <c r="F26" s="7">
-        <v>50</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="0"/>
         <v>0.9464285714285714</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>800</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="2">
         <v>250</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <f>K26/5</f>
         <v>50</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="18">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="5"/>
+        <v>8.6894132653061229E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>222</v>
+      </c>
+      <c r="B27" s="5">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="15">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>222</v>
-      </c>
-      <c r="B27" s="7">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>172</v>
-      </c>
-      <c r="F27" s="7">
-        <v>50</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="0"/>
         <v>0.77477477477477474</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>1000</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="2">
         <v>250</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <f>K27/5</f>
         <v>50</v>
       </c>
-      <c r="M27" s="7">
-        <f t="shared" si="2"/>
+      <c r="M27" s="18">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="N27" s="2">
+        <f t="shared" si="5"/>
+        <v>7.9944809674539402E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <f>COUNT(E9:E27)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="10"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C6A40-A53F-450D-94F5-51593BC7A6E0}">
-  <dimension ref="A2:O37"/>
+  <dimension ref="A2:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <f>1/(2*PI.GRECO()*B2*B4*10^-6)</f>
+        <f>1/(2*PI()*B2*B4*10^-6)</f>
         <v>15.899594714475059</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5750,9 +7244,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>100.1</v>
@@ -5761,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>1.44/0.224</f>
         <v>6.4285714285714279</v>
@@ -5771,953 +7265,1293 @@
         <v>6.576576576576576</v>
       </c>
       <c r="D7">
-        <f>1/RADQ(2)*B4/B3</f>
+        <f>1/SQRT(2)*B4/B3</f>
         <v>7.1641081778110722</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="G7">
         <f>D7*0.22</f>
         <v>1.5761037991184359</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>222</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f>B14/5</f>
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>2.08</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2">
+        <v>500</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14/5</f>
+        <v>100</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" ref="I14:I27" si="0">E14/A14*1000</f>
+        <v>9.3693693693693696</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <f>J14</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14:L29" si="1">K14/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" ref="M14:M37" si="2">J14^2*L14*10^-6</f>
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>220</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:C37" si="3">B15/5</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="F15" s="2">
+        <v>500</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15:G37" si="4">F15/5</f>
+        <v>100</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2727272727272734</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15:K33" si="5">J15</f>
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999991E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="F16" s="2">
+        <v>500</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9189189189189175</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>222</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="F17" s="2">
+        <v>500</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>8.468468468468469</v>
+      </c>
+      <c r="J17" s="2">
         <v>7</v>
       </c>
-      <c r="G14" s="3">
+      <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="2"/>
+        <v>6.8599999999999987E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>222</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="F18" s="2">
         <v>500</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3">
-        <f>E14/A14*1000</f>
-        <v>9.3693693693693696</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1531531531531538</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4579999999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="F19" s="2">
+        <v>500</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9279279279279287</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="F20" s="2">
+        <v>500</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7027027027027026</v>
+      </c>
+      <c r="J20" s="2">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="2"/>
+        <v>2.6620000000000002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="F21" s="2">
+        <v>500</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4324324324324316</v>
+      </c>
+      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4559999999999994E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>222</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="F22" s="2">
+        <v>500</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2522522522522523</v>
+      </c>
+      <c r="J22" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="2"/>
+        <v>4.394E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="F23" s="2">
+        <v>500</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0270270270270272</v>
+      </c>
+      <c r="J23" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="2"/>
+        <v>5.487999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="F24" s="2">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8918918918918921</v>
+      </c>
+      <c r="J24" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="5"/>
+        <v>14.3</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="2"/>
+        <v>5.8484140000000014E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>200</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="J25" s="2">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="2"/>
+        <v>6.7499999999999993E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>222</v>
+      </c>
+      <c r="B26" s="2">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.576576576576576</v>
+      </c>
+      <c r="J26" s="2">
+        <v>16</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="2"/>
+        <v>8.1919999999999996E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>222</v>
+      </c>
+      <c r="B27" s="2">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8108108108108114</v>
+      </c>
+      <c r="J27" s="2">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>222</v>
+      </c>
+      <c r="B28" s="2">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="F28" s="2">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" ref="I28:I37" si="6">E28/A28*1000</f>
+        <v>4.3243243243243246</v>
+      </c>
+      <c r="J28" s="2">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="2"/>
+        <v>5.9581999999999994E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>200</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4594594594594592</v>
+      </c>
+      <c r="J29" s="2">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>208</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F30" s="2">
+        <v>200</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="J30" s="2">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" ref="L30:L37" si="7">K30/5</f>
+        <v>10</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>208</v>
+      </c>
+      <c r="B31" s="5">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1346153846153846</v>
+      </c>
+      <c r="J31" s="5">
+        <v>75</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="2"/>
+        <v>8.4374999999999992E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>208</v>
+      </c>
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F32" s="5">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6250000000000002</v>
+      </c>
+      <c r="J32" s="5">
+        <v>100</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>208</v>
+      </c>
+      <c r="B33" s="5">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>50</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="6"/>
+        <v>1.096153846153846</v>
+      </c>
+      <c r="J33" s="5">
+        <v>150</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="2"/>
+        <v>0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>208</v>
+      </c>
+      <c r="B34" s="5">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F34" s="5">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.56730769230769229</v>
+      </c>
+      <c r="J34" s="5">
+        <v>300</v>
+      </c>
+      <c r="K34" s="2">
+        <f>J34/1000</f>
+        <v>0.3</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>204</v>
+      </c>
+      <c r="B35" s="5">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="J35" s="5">
+        <v>500</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" ref="K35:K37" si="8">J35/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>204</v>
+      </c>
+      <c r="B36" s="5">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17254901960784316</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <f>L14/5</f>
+      <c r="L36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="M36" s="13">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>208</v>
+      </c>
+      <c r="B37" s="5">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.84E-2</v>
+      </c>
+      <c r="F37" s="5">
         <v>20</v>
       </c>
-      <c r="O14" s="3">
-        <f>K14^2*N14*10^-6</f>
-        <v>1.9999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>220</v>
-      </c>
-      <c r="B15" s="3">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:C21" si="0">B15/5</f>
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>500</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3">
-        <f t="shared" ref="J15:J27" si="1">E15/A15*1000</f>
-        <v>9.2727272727272734</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <f t="shared" ref="N15:N29" si="2">L15/5</f>
-        <v>20</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" ref="O15:O37" si="3">K15^2*N15*10^-6</f>
-        <v>1.7999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>222</v>
-      </c>
-      <c r="B16" s="3">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>500</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9189189189189175</v>
-      </c>
-      <c r="K16" s="3">
-        <v>5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>25</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3">
+      <c r="G37" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="6"/>
+        <v>8.8461538461538466E-2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="M37" s="13">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="3"/>
-        <v>1.25E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>222</v>
-      </c>
-      <c r="B17" s="3">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.88</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>8.468468468468469</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7</v>
-      </c>
-      <c r="L17" s="3">
-        <v>25</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>222</v>
-      </c>
-      <c r="B18" s="3">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.81</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>500</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>8.1531531531531538</v>
-      </c>
-      <c r="K18" s="3">
-        <v>9</v>
-      </c>
-      <c r="L18" s="3">
-        <v>25</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0499999999999998E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>222</v>
-      </c>
-      <c r="B19" s="3">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>500</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>7.9279279279279287</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10</v>
-      </c>
-      <c r="L19" s="3">
-        <v>25</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>222</v>
-      </c>
-      <c r="B20" s="3">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>7.7027027027027026</v>
-      </c>
-      <c r="K20" s="3">
-        <v>11</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="3"/>
-        <v>2.42E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>222</v>
-      </c>
-      <c r="B21" s="3">
-        <v>50</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.65</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>500</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>7.4324324324324316</v>
-      </c>
-      <c r="K21" s="3">
-        <v>12</v>
-      </c>
-      <c r="L21" s="3">
-        <v>10</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="3"/>
-        <v>2.8800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>222</v>
-      </c>
-      <c r="B22" s="3">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="E22" s="3">
-        <v>1.61</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>7.2522522522522523</v>
-      </c>
-      <c r="K22" s="3">
-        <v>13</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>222</v>
-      </c>
-      <c r="B23" s="3">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>500</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0270270270270272</v>
-      </c>
-      <c r="K23" s="3">
-        <v>14</v>
-      </c>
-      <c r="L23" s="3">
-        <v>10</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9199999999999999E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>222</v>
-      </c>
-      <c r="B24" s="3">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="E24" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>6.8918918918918921</v>
-      </c>
-      <c r="K24" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>10</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0897999999999998E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>222</v>
-      </c>
-      <c r="B25" s="3">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>200</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>6.756756756756757</v>
-      </c>
-      <c r="K25" s="3">
-        <v>15</v>
-      </c>
-      <c r="L25" s="3">
-        <v>10</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="3"/>
-        <v>4.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>222</v>
-      </c>
-      <c r="B26" s="3">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="E26" s="3">
-        <v>1.46</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>6.576576576576576</v>
-      </c>
-      <c r="K26" s="3">
-        <v>16</v>
-      </c>
-      <c r="L26" s="3">
-        <v>10</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="3"/>
-        <v>5.1199999999999998E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>222</v>
-      </c>
-      <c r="B27" s="3">
-        <v>50</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="E27" s="3">
-        <v>1.29</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>5.8108108108108114</v>
-      </c>
-      <c r="K27" s="3">
-        <v>20</v>
-      </c>
-      <c r="L27" s="3">
-        <v>10</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="3"/>
-        <v>7.9999999999999993E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>222</v>
-      </c>
-      <c r="B28" s="3">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3">
-        <v>960</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="3">
-        <v>200</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3">
-        <f>E28/A28</f>
-        <v>4.3243243243243246</v>
-      </c>
-      <c r="K28" s="3">
-        <v>31</v>
-      </c>
-      <c r="L28" s="3">
-        <v>5</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="3"/>
-        <v>9.6099999999999994E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>222</v>
-      </c>
-      <c r="B29" s="3">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="E29" s="3">
-        <v>768</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
-        <v>200</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3">
-        <f>E29/A29</f>
-        <v>3.4594594594594597</v>
-      </c>
-      <c r="K29" s="3">
-        <v>40</v>
-      </c>
-      <c r="L29" s="3">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>208</v>
-      </c>
-      <c r="B30" s="3">
-        <v>50</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="E30" s="3">
-        <v>640</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="3">
-        <v>200</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="J30" s="3">
-        <f>E30/A30</f>
-        <v>3.0769230769230771</v>
-      </c>
-      <c r="K30" s="3">
-        <v>50</v>
-      </c>
-      <c r="L30" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
-        <f>L30/5</f>
-        <v>0.5</v>
-      </c>
-      <c r="O30" s="3">
-        <f t="shared" si="3"/>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>208</v>
-      </c>
-      <c r="B31" s="8">
-        <v>50</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="E31" s="8">
-        <v>444</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="8">
-        <v>100</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="J31" s="8">
-        <f>E31/A31</f>
-        <v>2.1346153846153846</v>
-      </c>
-      <c r="K31" s="8">
-        <v>75</v>
-      </c>
-      <c r="L31" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="8">
-        <f>L31/5</f>
-        <v>0.5</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="3"/>
-        <v>2.8124999999999999E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>208</v>
-      </c>
-      <c r="B32" s="8">
-        <v>50</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="E32" s="8">
-        <v>338</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="8">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="J32" s="8">
-        <f>E32/A32</f>
-        <v>1.625</v>
-      </c>
-      <c r="K32" s="8">
-        <v>100</v>
-      </c>
-      <c r="L32" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="8">
-        <f>L32/5</f>
-        <v>0.5</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>208</v>
-      </c>
-      <c r="B33" s="8">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="E33" s="8">
-        <v>228</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="8">
-        <v>50</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="J33" s="8">
-        <f>E33/A33</f>
-        <v>1.0961538461538463</v>
-      </c>
-      <c r="K33" s="8">
-        <v>150</v>
-      </c>
-      <c r="L33" s="8">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="8">
-        <f>L33/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="3"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>208</v>
-      </c>
-      <c r="B34" s="8">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="E34" s="8">
-        <v>118</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8">
-        <v>50</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="J34" s="8">
-        <f>E34/A34</f>
-        <v>0.56730769230769229</v>
-      </c>
-      <c r="K34" s="8">
-        <v>300</v>
-      </c>
-      <c r="L34" s="8">
-        <v>500</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="8">
-        <f>L34/5</f>
-        <v>100</v>
-      </c>
-      <c r="O34" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>204</v>
-      </c>
-      <c r="B35" s="8">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="E35" s="8">
-        <v>68</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="8">
-        <v>20</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="J35" s="8">
-        <f>E35/A35</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K35" s="8">
-        <v>500</v>
-      </c>
-      <c r="L35" s="8">
-        <v>500</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="8">
-        <f>L35/5</f>
-        <v>100</v>
-      </c>
-      <c r="O35" s="8">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>204</v>
-      </c>
-      <c r="B36" s="8">
-        <v>50</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="E36" s="8">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8">
-        <v>20</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="J36" s="8">
-        <f>E36/A36</f>
-        <v>0.17254901960784316</v>
-      </c>
-      <c r="K36" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="8">
-        <v>250</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="8">
-        <f>L36/5</f>
-        <v>50</v>
-      </c>
-      <c r="O36" s="8">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>208</v>
-      </c>
-      <c r="B37" s="7">
-        <v>50</v>
-      </c>
-      <c r="E37" s="7">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G37" s="7">
-        <v>20</v>
-      </c>
-      <c r="J37" s="7">
-        <f>E37/A37</f>
-        <v>8.8461538461538453E-2</v>
-      </c>
-      <c r="K37" s="7">
-        <v>2000</v>
-      </c>
-      <c r="L37" s="7">
-        <v>250</v>
-      </c>
-      <c r="N37" s="7">
-        <f>L37/5</f>
-        <v>50</v>
-      </c>
-      <c r="O37" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6726,6 +8560,187 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478B1CDB-46D0-468A-BDAD-BD6BE7EF1865}">
+  <dimension ref="C2:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1.488</v>
+      </c>
+      <c r="E8">
+        <v>-0.629</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="E10">
+        <v>-0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4.42</v>
+      </c>
+      <c r="E12">
+        <v>-0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>5.05</v>
+      </c>
+      <c r="E13">
+        <v>-0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>6.01</v>
+      </c>
+      <c r="E14">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7.04</v>
+      </c>
+      <c r="E15">
+        <v>-0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E16">
+        <v>-0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>9.09</v>
+      </c>
+      <c r="E17">
+        <v>-0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>10.64</v>
+      </c>
+      <c r="E18">
+        <v>-0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>12.01</v>
+      </c>
+      <c r="E19">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>13.09</v>
+      </c>
+      <c r="E20">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>14.1</v>
+      </c>
+      <c r="E21">
+        <v>-0.749</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>15.07</v>
+      </c>
+      <c r="E22">
+        <v>-0.752</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1.069</v>
+      </c>
+      <c r="E23">
+        <v>-0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F8BA2-A37E-4443-B49B-2F2AF41589F3}">
   <dimension ref="A3:H11"/>
   <sheetViews>
@@ -6737,7 +8752,7 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0.98699999999999999</v>
@@ -6758,9 +8773,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <f>1/(2*PI.GRECO()*B3*Integratore!B2*10^-6)</f>
-        <v>1612.5120880637826</v>
+      <c r="E5" t="e">
+        <f ca="1">1/(2*PI.GRECO()*B3*Integratore!B2*10^-6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6777,188 +8792,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478B1CDB-46D0-468A-BDAD-BD6BE7EF1865}">
-  <dimension ref="C2:J23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-      <c r="E7">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>1.488</v>
-      </c>
-      <c r="E8">
-        <v>-0.629</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="E9">
-        <v>-0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>3.0390000000000001</v>
-      </c>
-      <c r="E10">
-        <v>-0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>4.42</v>
-      </c>
-      <c r="E12">
-        <v>-0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>5.05</v>
-      </c>
-      <c r="E13">
-        <v>-0.69099999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>6.01</v>
-      </c>
-      <c r="E14">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>7.04</v>
-      </c>
-      <c r="E15">
-        <v>-0.70899999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="E16">
-        <v>-0.71799999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>9.09</v>
-      </c>
-      <c r="E17">
-        <v>-0.72399999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>10.64</v>
-      </c>
-      <c r="E18">
-        <v>-0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>12.01</v>
-      </c>
-      <c r="E19">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>13.09</v>
-      </c>
-      <c r="E20">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>14.1</v>
-      </c>
-      <c r="E21">
-        <v>-0.749</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>15.07</v>
-      </c>
-      <c r="E22">
-        <v>-0.752</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>1.069</v>
-      </c>
-      <c r="E23">
-        <v>-0.61</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/LAB ELETTRONICA.xlsx
+++ b/LAB ELETTRONICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38f588b552f918fe/Documenti/Lectures/Lab elettronica/Amplificatore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{AF7681E6-7AB2-4356-BC69-C119FF3E4F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF653AF8-2536-4B12-9A0C-F1A0FF5FCE36}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{AF7681E6-7AB2-4356-BC69-C119FF3E4F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464081C4-F421-45AB-A6FC-8806412A2991}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
   </bookViews>
   <sheets>
     <sheet name="Non invertente" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>rf</t>
   </si>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,14 +175,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -311,15 +303,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
@@ -713,802 +706,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Invertente 1'!$J$10:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Invertente 1'!$I$10:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.0256410256410255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95121951219512191</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96153846153846156</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94871794871794868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94303797468354433</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86075949367088611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.52469135802469136</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43209876543209874</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38734567901234568</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.30246913580246915</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.26543209876543211</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2191358024691358</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.14506172839506173</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76012461059190028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7495-4DF1-BF43-0E375957F1A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="452481648"/>
-        <c:axId val="449056408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="452481648"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="449056408"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="449056408"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="452481648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Invertente 10'!$J$9:$J$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Invertente 10'!$I$9:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>9.3999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.4230769230769234</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.3333333333333321</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.1603773584905657</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.1028037383177569</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.1111111111111116</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.954954954954955</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.545454545454545</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.6363636363636362</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9099099099099097</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5135135135135136</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9464285714285714</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.77477477477477474</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8A8E-4A0E-95FD-35E7BDA0EE57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="466463312"/>
-        <c:axId val="466464624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="466463312"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466464624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="466464624"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466463312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1982,86 +1179,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3133,1052 +2250,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4208,40 +2293,48 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>186135</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174719</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>422836</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23547</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F225ADFB-4C93-4D2D-9B7A-ACA0B0EE078A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B578E94-1C8F-4051-AA7B-4BA67EEBE086}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9947766" y="1498203"/>
+          <a:ext cx="8116164" cy="4210578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4249,40 +2342,48 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>583277</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>412124</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>191815</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C345B77F-F277-4940-94E9-4ACF26C3BB29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2976D55-4FCD-4497-BED1-49FE0F5242D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10079702" y="1447800"/>
+          <a:ext cx="7144047" cy="3687490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4628,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CDC5F6-160F-4DA0-A565-13F91B3DDBA7}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B3" zoomScale="112" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,10 +2757,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -4671,8 +2772,8 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -4684,8 +2785,8 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5294,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9862ECE5-048D-44FB-B1ED-7C6073261122}">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,12 +3410,12 @@
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5336,8 +3437,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -5368,11 +3471,14 @@
       <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>624</v>
       </c>
@@ -5408,8 +3514,12 @@
         <f>J10^2*L10*10^-6</f>
         <v>1.9999999999999998E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="19">
+        <f>1/A10*G10+E10/A10^2*C10</f>
+        <v>0.12984878369493752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>640</v>
       </c>
@@ -5445,8 +3555,12 @@
         <f t="shared" ref="M11:M26" si="1">J11^2*L11*10^-6</f>
         <v>1.2500000000000002E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="18">
+        <f t="shared" ref="N11:N25" si="2">1/A11*G11+E11/A11^2*C11</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>640</v>
       </c>
@@ -5482,8 +3596,12 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.12421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>656</v>
       </c>
@@ -5519,8 +3637,12 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.11897679952409279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>624</v>
       </c>
@@ -5556,8 +3678,12 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1257396449704142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>624</v>
       </c>
@@ -5593,8 +3719,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.12491781722550953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>632</v>
       </c>
@@ -5630,8 +3760,12 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.12297708700528762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>632</v>
       </c>
@@ -5667,8 +3801,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.11776958820701811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>648</v>
       </c>
@@ -5704,8 +3842,12 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="18">
+        <f t="shared" si="2"/>
+        <v>0.102880658436214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>648</v>
       </c>
@@ -5741,8 +3883,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="18">
+        <f t="shared" si="2"/>
+        <v>6.3252552964487119E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>648</v>
       </c>
@@ -5778,8 +3924,12 @@
         <f t="shared" si="1"/>
         <v>45.125</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="18">
+        <f t="shared" si="2"/>
+        <v>5.7536960829141899E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>648</v>
       </c>
@@ -5815,8 +3965,12 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="18">
+        <f t="shared" si="2"/>
+        <v>5.4774424630391706E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>648</v>
       </c>
@@ -5852,8 +4006,12 @@
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="18">
+        <f t="shared" si="2"/>
+        <v>3.4103033074226491E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>648</v>
       </c>
@@ -5889,8 +4047,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="18">
+        <f t="shared" si="2"/>
+        <v>3.18167962200884E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>648</v>
       </c>
@@ -5926,8 +4088,12 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="18">
+        <f t="shared" si="2"/>
+        <v>2.8959000152415787E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>648</v>
       </c>
@@ -5963,8 +4129,12 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="18">
+        <f t="shared" si="2"/>
+        <v>2.4386526444139613E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>642</v>
       </c>
@@ -6000,10 +4170,130 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="N26" s="18">
+        <f>1/A26*G26+E26/A26^2*C26</f>
+        <v>5.483254238604051E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <f>COUNT(E10:E26)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6011,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F8092-FBF0-4B0A-9B08-F3B77FB1574B}">
   <dimension ref="A3:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,7 +4367,7 @@
       <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -6105,7 +4395,7 @@
         <f>F9/5</f>
         <v>0.1</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f>E9/A9*1000</f>
         <v>9.3999999999999986</v>
       </c>
@@ -6119,13 +4409,13 @@
         <f>K9/5</f>
         <v>20000000</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <f>J9^2*L9*10^-6</f>
         <v>1.9999999999999998E-5</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/A9*C9+E9*1000/A9^2*G9*1000</f>
-        <v>4.75</v>
+      <c r="N9" s="18">
+        <f>1/A9*G9*1000+E9*1000/A9^2*C9</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6149,7 +4439,7 @@
         <f t="shared" ref="G10:G27" si="1">F10/5</f>
         <v>0.1</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f t="shared" ref="I10:I27" si="2">E10/A10*1000</f>
         <v>9.7999999999999989</v>
       </c>
@@ -6163,13 +4453,13 @@
         <f t="shared" ref="L10:L24" si="3">K10/5</f>
         <v>5000000</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <f t="shared" ref="M10:M27" si="4">J10^2*L10*10^-6</f>
         <v>1.25E-4</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" ref="N10:N27" si="5">1/A10*C10+E10*1000/A10^2*G10*1000</f>
-        <v>4.95</v>
+      <c r="N10" s="18">
+        <f t="shared" ref="N10:N27" si="5">1/A10*G10*1000+E10*1000/A10^2*C10</f>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6193,7 +4483,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -6207,13 +4497,13 @@
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <f t="shared" si="4"/>
         <v>1.9999999999999998E-4</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="18">
         <f t="shared" si="5"/>
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6237,7 +4527,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -6251,13 +4541,13 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <f t="shared" si="4"/>
         <v>1.2500000000000002E-3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="18">
         <f t="shared" si="5"/>
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6281,7 +4571,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -6295,13 +4585,13 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <f t="shared" si="4"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="18">
         <f t="shared" si="5"/>
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6325,7 +4615,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -6339,13 +4629,13 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <f t="shared" si="4"/>
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="18">
         <f t="shared" si="5"/>
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6369,7 +4659,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -6383,13 +4673,13 @@
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="18">
         <f t="shared" si="5"/>
-        <v>4.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6413,7 +4703,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <f t="shared" si="2"/>
         <v>9.4230769230769234</v>
       </c>
@@ -6427,13 +4717,13 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="18">
         <f t="shared" si="5"/>
-        <v>4.578402366863906</v>
+        <v>0.93380177514792906</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6457,7 +4747,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <f t="shared" si="2"/>
         <v>9.3333333333333321</v>
       </c>
@@ -6471,13 +4761,13 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <f t="shared" si="4"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="18">
         <f t="shared" si="5"/>
-        <v>4.4920634920634921</v>
+        <v>0.92063492063492069</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6501,7 +4791,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <f t="shared" si="2"/>
         <v>8.1603773584905657</v>
       </c>
@@ -6515,13 +4805,13 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="18">
         <f t="shared" si="5"/>
-        <v>3.8964044143823426</v>
+        <v>0.85662157351370594</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6545,7 +4835,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <f t="shared" si="2"/>
         <v>7.1028037383177569</v>
       </c>
@@ -6559,13 +4849,13 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <f t="shared" si="4"/>
         <v>5.625</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="18">
         <f t="shared" si="5"/>
-        <v>1.3743558389378985</v>
+        <v>0.51882260459428775</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6589,7 +4879,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="14">
         <f t="shared" si="2"/>
         <v>6.1111111111111116</v>
       </c>
@@ -6603,13 +4893,13 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="18">
         <f t="shared" si="5"/>
-        <v>1.17798353909465</v>
+        <v>0.46810699588477367</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6633,7 +4923,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f t="shared" si="2"/>
         <v>2.954954954954955</v>
       </c>
@@ -6647,13 +4937,13 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="18">
         <f t="shared" si="5"/>
-        <v>0.57746936125314507</v>
+        <v>0.31328625923220521</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6677,7 +4967,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f t="shared" si="2"/>
         <v>4.545454545454545</v>
       </c>
@@ -6691,13 +4981,13 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="18">
         <f t="shared" si="5"/>
-        <v>0.87190082644628109</v>
+        <v>0.38842975206611569</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6721,7 +5011,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <f t="shared" si="2"/>
         <v>3.6363636363636362</v>
       </c>
@@ -6735,13 +5025,13 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="16">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="18">
         <f t="shared" si="5"/>
-        <v>0.70661157024793386</v>
+        <v>0.34710743801652888</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6765,7 +5055,7 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="14">
         <f t="shared" si="2"/>
         <v>1.9099099099099097</v>
       </c>
@@ -6779,13 +5069,13 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="16">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="18">
         <f t="shared" si="5"/>
-        <v>0.21710900089278468</v>
+        <v>0.17612206801395991</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6809,7 +5099,7 @@
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <f t="shared" si="2"/>
         <v>1.5135135135135136</v>
       </c>
@@ -6823,13 +5113,13 @@
         <f>K25/5</f>
         <v>100</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="16">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="18">
         <f t="shared" si="5"/>
-        <v>0.11322132943754566</v>
+        <v>0.11322132943754565</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6853,7 +5143,7 @@
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <f t="shared" si="2"/>
         <v>0.9464285714285714</v>
       </c>
@@ -6867,11 +5157,11 @@
         <f>K26/5</f>
         <v>50</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="17">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="18">
         <f t="shared" si="5"/>
         <v>8.6894132653061229E-2</v>
       </c>
@@ -6897,7 +5187,7 @@
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <f t="shared" si="2"/>
         <v>0.77477477477477474</v>
       </c>
@@ -6911,11 +5201,11 @@
         <f>K27/5</f>
         <v>50</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="18">
         <f t="shared" si="5"/>
         <v>7.9944809674539402E-2</v>
       </c>
@@ -7204,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C6A40-A53F-450D-94F5-51593BC7A6E0}">
   <dimension ref="A2:M76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="A9" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7346,16 +5636,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <f>J14</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" ref="L14:L29" si="1">K14/5</f>
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" ref="M14:M37" si="2">J14^2*L14*10^-6</f>
-        <v>1.9999999999999999E-7</v>
+        <v>1.9999999999999998E-5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7387,16 +5676,15 @@
         <v>3</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15:K33" si="5">J15</f>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>20</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" si="2"/>
-        <v>5.3999999999999991E-6</v>
+        <v>1.7999999999999998E-4</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7428,16 +5716,15 @@
         <v>5</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" si="2"/>
-        <v>2.4999999999999998E-5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7469,16 +5756,15 @@
         <v>7</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>20</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="2"/>
-        <v>6.8599999999999987E-5</v>
+        <v>9.7999999999999997E-4</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7510,16 +5796,15 @@
         <v>9</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>20</v>
       </c>
       <c r="M18" s="12">
         <f t="shared" si="2"/>
-        <v>1.4579999999999999E-4</v>
+        <v>1.6199999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7551,16 +5836,15 @@
         <v>10</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M19" s="12">
         <f t="shared" si="2"/>
-        <v>1.9999999999999998E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7592,16 +5876,15 @@
         <v>11</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>10</v>
       </c>
       <c r="M20" s="12">
         <f t="shared" si="2"/>
-        <v>2.6620000000000002E-4</v>
+        <v>1.2099999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7633,16 +5916,15 @@
         <v>12</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="M21" s="12">
         <f t="shared" si="2"/>
-        <v>3.4559999999999994E-4</v>
+        <v>1.4399999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7674,16 +5956,15 @@
         <v>13</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="M22" s="12">
         <f t="shared" si="2"/>
-        <v>4.394E-4</v>
+        <v>1.6899999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7715,16 +5996,15 @@
         <v>14</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="M23" s="12">
         <f t="shared" si="2"/>
-        <v>5.487999999999999E-4</v>
+        <v>1.9599999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7756,16 +6036,15 @@
         <v>14.3</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="5"/>
-        <v>14.3</v>
+        <v>50</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="1"/>
-        <v>2.8600000000000003</v>
+        <v>10</v>
       </c>
       <c r="M24" s="12">
         <f t="shared" si="2"/>
-        <v>5.8484140000000014E-4</v>
+        <v>2.0449000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7797,16 +6076,15 @@
         <v>15</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M25" s="12">
         <f t="shared" si="2"/>
-        <v>6.7499999999999993E-4</v>
+        <v>2.2499999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7838,16 +6116,15 @@
         <v>16</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="M26" s="12">
         <f t="shared" si="2"/>
-        <v>8.1919999999999996E-4</v>
+        <v>2.5599999999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7879,16 +6156,15 @@
         <v>20</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="2"/>
-        <v>1.5999999999999999E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7913,23 +6189,22 @@
         <v>40</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" ref="I28:I37" si="6">E28/A28*1000</f>
+        <f t="shared" ref="I28:I37" si="5">E28/A28*1000</f>
         <v>4.3243243243243246</v>
       </c>
       <c r="J28" s="2">
         <v>31</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="2"/>
-        <v>5.9581999999999994E-3</v>
+        <v>9.6099999999999988E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7954,23 +6229,22 @@
         <v>40</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.4594594594594592</v>
       </c>
       <c r="J29" s="2">
         <v>40</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="2"/>
-        <v>1.2799999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7995,23 +6269,22 @@
         <v>40</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.0769230769230771</v>
       </c>
       <c r="J30" s="2">
         <v>50</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" ref="L30:L37" si="7">K30/5</f>
-        <v>10</v>
+        <f t="shared" ref="L30:L37" si="6">K30/5</f>
+        <v>5</v>
       </c>
       <c r="M30" s="12">
         <f t="shared" si="2"/>
-        <v>2.4999999999999998E-2</v>
+        <v>1.2499999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8036,23 +6309,22 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1346153846153846</v>
       </c>
       <c r="J31" s="5">
         <v>75</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="5"/>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="2"/>
-        <v>8.4374999999999992E-2</v>
+        <v>2.8124999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8077,23 +6349,22 @@
         <v>20</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.6250000000000002</v>
       </c>
       <c r="J32" s="5">
         <v>100</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
+        <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8118,23 +6389,22 @@
         <v>10</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.096153846153846</v>
       </c>
       <c r="J33" s="5">
         <v>150</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="5"/>
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="2"/>
-        <v>0.67499999999999993</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8159,23 +6429,22 @@
         <v>10</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.56730769230769229</v>
       </c>
       <c r="J34" s="5">
         <v>300</v>
       </c>
       <c r="K34" s="2">
-        <f>J34/1000</f>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="7"/>
-        <v>0.06</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="2"/>
-        <v>5.3999999999999994E-3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8200,23 +6469,22 @@
         <v>4</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="J35" s="5">
         <v>500</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" ref="K35:K37" si="8">J35/1000</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
+        <f t="shared" si="6"/>
+        <v>0.2</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="2"/>
-        <v>2.4999999999999998E-2</v>
+        <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8241,23 +6509,22 @@
         <v>4</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.17254901960784316</v>
       </c>
       <c r="J36" s="5">
         <v>1000</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>0.02</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8282,23 +6549,22 @@
         <v>4</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.8461538461538466E-2</v>
       </c>
       <c r="J37" s="5">
         <v>2000</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="7"/>
-        <v>0.4</v>
+        <f t="shared" si="6"/>
+        <v>0.02</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="2"/>
-        <v>1.5999999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">

--- a/LAB ELETTRONICA.xlsx
+++ b/LAB ELETTRONICA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38f588b552f918fe/Documenti/Lectures/Lab elettronica/Amplificatore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fachi\OneDrive\Documenti\Lectures\Lab elettronica\Amplificatore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{AF7681E6-7AB2-4356-BC69-C119FF3E4F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464081C4-F421-45AB-A6FC-8806412A2991}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A17504-00A1-4416-9EAB-9B04404FA49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
   </bookViews>
   <sheets>
     <sheet name="Non invertente" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="Integratore" sheetId="4" r:id="rId4"/>
     <sheet name="Logaritmico" sheetId="6" r:id="rId5"/>
     <sheet name="Derivatore" sheetId="5" r:id="rId6"/>
+    <sheet name="differenza" sheetId="7" r:id="rId7"/>
+    <sheet name="Foglio2" sheetId="8" r:id="rId8"/>
+    <sheet name="Foglio3" sheetId="9" r:id="rId9"/>
+    <sheet name="Sipm 1mm" sheetId="10" r:id="rId10"/>
+    <sheet name="Foglio5" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>rf</t>
   </si>
@@ -148,6 +153,111 @@
   </si>
   <si>
     <t>numero</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>utilizzando 100 hz e 90 hz la frequenza di battimento è 10 hz corretta</t>
+  </si>
+  <si>
+    <t>(in realtà viene 9.901 hz)</t>
+  </si>
+  <si>
+    <t>differenza tempo</t>
+  </si>
+  <si>
+    <t>138 ns</t>
+  </si>
+  <si>
+    <t>133ns</t>
+  </si>
+  <si>
+    <t>sul massimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sull'inizio </t>
+  </si>
+  <si>
+    <t>50 ohm</t>
+  </si>
+  <si>
+    <t>circuito aperto</t>
+  </si>
+  <si>
+    <t>139 ns</t>
+  </si>
+  <si>
+    <t>sull'inizio</t>
+  </si>
+  <si>
+    <t>131 ns</t>
+  </si>
+  <si>
+    <t>circuito chiuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media </t>
+  </si>
+  <si>
+    <t>minimo segnale</t>
+  </si>
+  <si>
+    <t>267.90 ns</t>
+  </si>
+  <si>
+    <t>L=</t>
+  </si>
+  <si>
+    <t>da sx a dx</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>rosso</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>meterman 35xp</t>
+  </si>
+  <si>
+    <t>giallo</t>
+  </si>
+  <si>
+    <t>Satura a 3V</t>
+  </si>
+  <si>
+    <t>saved 04</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>saved 07</t>
+  </si>
+  <si>
+    <t>3mm</t>
   </si>
 </sst>
 </file>
@@ -309,10 +419,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
@@ -2757,10 +2867,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2772,8 +2882,8 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2785,8 +2895,8 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3393,11 +3503,157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958B9409-BFC6-4100-8C0B-559A31A7DE9F}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>91.4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>101.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>93.9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0.44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>9.92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE37B6-AE7D-4B8C-99CB-0F6AAEFA1CD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9862ECE5-048D-44FB-B1ED-7C6073261122}">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -4264,7 +4520,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
-      <c r="M42" s="21"/>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H43" s="10"/>
@@ -6830,7 +7086,7 @@
   <dimension ref="C2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7064,4 +7320,224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13036CE-5AD6-46AA-A514-76D6E756C639}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0.98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>9.9009999999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0B6771-474E-4BD4-AC6E-28E1CD967CAC}">
+  <dimension ref="A2:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028F8C53-F499-453C-99C2-29AAFAA430D0}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>138/5</f>
+        <v>27.6</v>
+      </c>
+      <c r="E5">
+        <f>133/5</f>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(D14:E14,D5:E5,D22:E22)</f>
+        <v>27.033333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>139/5</f>
+        <v>27.8</v>
+      </c>
+      <c r="E14">
+        <f>131/5</f>
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>268</v>
+      </c>
+      <c r="E18">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>268/10</f>
+        <v>26.8</v>
+      </c>
+      <c r="E22">
+        <f>272/10</f>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>267.9*2</f>
+        <v>535.79999999999995</v>
+      </c>
+      <c r="E29">
+        <f>267.9/2</f>
+        <v>133.94999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LAB ELETTRONICA.xlsx
+++ b/LAB ELETTRONICA.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fachi\OneDrive\Documenti\Lectures\Lab elettronica\Amplificatore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38f588b552f918fe/Documenti/Lectures/Lab elettronica/Amplificatore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A17504-00A1-4416-9EAB-9B04404FA49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{15A17504-00A1-4416-9EAB-9B04404FA49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7EF021-8FC1-4E13-B459-0889F86F9354}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{1748DFF2-25E1-45C8-9E48-946719D1D616}"/>
   </bookViews>
   <sheets>
-    <sheet name="Non invertente" sheetId="1" r:id="rId1"/>
-    <sheet name="Invertente 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Invertente 10" sheetId="3" r:id="rId3"/>
-    <sheet name="Integratore" sheetId="4" r:id="rId4"/>
-    <sheet name="Logaritmico" sheetId="6" r:id="rId5"/>
-    <sheet name="Derivatore" sheetId="5" r:id="rId6"/>
+    <sheet name="Non invertente" sheetId="12" r:id="rId1"/>
+    <sheet name="Invertente 1" sheetId="13" r:id="rId2"/>
+    <sheet name="Invertente 10" sheetId="14" r:id="rId3"/>
+    <sheet name="Integratore" sheetId="15" r:id="rId4"/>
+    <sheet name="Logaritmico" sheetId="16" r:id="rId5"/>
+    <sheet name="Derivatore" sheetId="17" r:id="rId6"/>
     <sheet name="differenza" sheetId="7" r:id="rId7"/>
     <sheet name="Foglio2" sheetId="8" r:id="rId8"/>
     <sheet name="Foglio3" sheetId="9" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>rf</t>
   </si>
@@ -259,15 +259,33 @@
   <si>
     <t>3mm</t>
   </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>guadagno aspettato</t>
+  </si>
+  <si>
+    <t>fhf</t>
+  </si>
+  <si>
+    <t>vout alla frequenza di taglio ipotetica</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
+    <numFmt numFmtId="168" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +303,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,31 +424,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
@@ -622,7 +653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF59-43DF-ADF2-D3972B2BF112}"/>
+              <c16:uniqueId val="{00000000-0F50-41EB-B33A-F297EB87E054}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1055,7 +1086,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC0A-44A9-A59A-3F912EE60915}"/>
+              <c16:uniqueId val="{00000000-46CF-44E5-A97E-6F7EC0EC5D18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2377,14 +2408,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9D5D30-0003-4332-B2FE-CE37250A049E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3384FF3-FD91-4DD9-8E5A-8020BF4B2407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2403,25 +2436,20 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>174719</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>422836</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>23547</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="8172917" cy="4246694"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Immagine 2">
+        <xdr:cNvPr id="2" name="Immagine 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B578E94-1C8F-4051-AA7B-4BA67EEBE086}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFFD625-0307-477D-9DF5-5A4F8A092EB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,8 +2465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9947766" y="1498203"/>
-          <a:ext cx="8116164" cy="4210578"/>
+          <a:off x="9318719" y="1482328"/>
+          <a:ext cx="8172917" cy="4246694"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2446,31 +2474,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>583277</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>412124</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>191815</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="7144047" cy="3687490"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Immagine 2">
+        <xdr:cNvPr id="2" name="Immagine 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2976D55-4FCD-4497-BED1-49FE0F5242D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2107452-5C41-4559-AFC5-AF85D80A2E3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10079702" y="1447800"/>
+          <a:off x="9727277" y="1438275"/>
           <a:ext cx="7144047" cy="3687490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2495,7 +2518,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2503,14 +2526,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48538</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>349875</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
@@ -2519,11 +2542,13 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5D01C6-A0F3-48AA-BA28-81E363EADED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D0AC96-0A38-4D47-9C0E-704582D15699}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2836,11 +2861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CDC5F6-160F-4DA0-A565-13F91B3DDBA7}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E8679-B0D4-4D0A-8E33-1BDA7A7F29E4}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="112" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,11 +2876,12 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2863,16 +2889,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2882,10 +2908,23 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <f>0.006*B3+0.003</f>
+        <v>8.934000000000001E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2895,11 +2934,32 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f>0.006*B4+0.003</f>
+        <v>8.9100000000000013E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="M4">
+        <f>1+B3/B4</f>
+        <v>2.004060913705584</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <f>1/B4*E3+B3/B4^2*E4</f>
+        <v>1.815246978793579E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2933,8 +2993,11 @@
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>616</v>
       </c>
@@ -2942,7 +3005,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="2">
-        <f>B10/5</f>
+        <f t="shared" ref="C10:C23" si="0">B10/5</f>
         <v>40</v>
       </c>
       <c r="E10" s="2">
@@ -2952,11 +3015,11 @@
         <v>500</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/5</f>
+        <f t="shared" ref="G10:G23" si="1">F10/5</f>
         <v>100</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" ref="I10:I23" si="0">E10/A10</f>
+        <f t="shared" ref="I10:I23" si="2">E10/A10</f>
         <v>1.9805194805194806</v>
       </c>
       <c r="J10" s="2">
@@ -2966,15 +3029,19 @@
         <v>250000</v>
       </c>
       <c r="L10" s="2">
-        <f>K10/5</f>
+        <f t="shared" ref="L10:L23" si="3">K10/5</f>
         <v>50000</v>
       </c>
       <c r="M10" s="2">
-        <f>J10^2*L10*10^-6</f>
+        <f t="shared" ref="M10:M23" si="4">J10^2*L10*10^-6</f>
         <v>4.9999999999999996E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="14">
+        <f t="shared" ref="N10:N26" si="5">1/A10*G10+E10/A10^2*C10</f>
+        <v>0.29094282341035588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>640</v>
       </c>
@@ -2982,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:C23" si="1">B11/5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E11" s="2">
@@ -2992,11 +3059,11 @@
         <v>200</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:G23" si="2">F11/5</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.921875</v>
       </c>
       <c r="J11" s="2">
@@ -3006,15 +3073,19 @@
         <v>50000</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:L23" si="3">K11/5</f>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11:M23" si="4">J11^2*L11*10^-6</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="10">
+        <f t="shared" si="5"/>
+        <v>0.12255859375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>650</v>
       </c>
@@ -3022,7 +3093,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E12" s="2">
@@ -3032,11 +3103,11 @@
         <v>200</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
         <v>1.9076923076923078</v>
       </c>
       <c r="J12" s="2">
@@ -3053,8 +3124,12 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="10">
+        <f t="shared" si="5"/>
+        <v>0.12023668639053255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>672</v>
       </c>
@@ -3062,7 +3137,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E13" s="2">
@@ -3072,11 +3147,11 @@
         <v>200</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
       <c r="J13" s="2">
@@ -3093,8 +3168,12 @@
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.11532738095238096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>672</v>
       </c>
@@ -3102,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E14" s="2">
@@ -3112,11 +3191,11 @@
         <v>200</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
         <v>1.8601190476190477</v>
       </c>
       <c r="J14" s="2">
@@ -3133,8 +3212,12 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.1148844954648526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>684</v>
       </c>
@@ -3142,7 +3225,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E15" s="2">
@@ -3152,11 +3235,11 @@
         <v>200</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
         <v>1.695906432748538</v>
       </c>
       <c r="J15" s="2">
@@ -3173,8 +3256,12 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.10806743955405082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>688</v>
       </c>
@@ -3182,7 +3269,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E16" s="2">
@@ -3192,11 +3279,11 @@
         <v>200</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
         <v>1.3808139534883721</v>
       </c>
       <c r="J16" s="2">
@@ -3213,8 +3300,12 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="10">
+        <f t="shared" si="5"/>
+        <v>9.8279475392103841E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>700</v>
       </c>
@@ -3222,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E17" s="2">
@@ -3232,11 +3323,11 @@
         <v>200</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
         <v>1.0628571428571429</v>
       </c>
       <c r="J17" s="2">
@@ -3253,8 +3344,12 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="10">
+        <f t="shared" si="5"/>
+        <v>8.7510204081632653E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>684</v>
       </c>
@@ -3262,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E18" s="2">
@@ -3272,11 +3367,11 @@
         <v>200</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
         <v>1.7836257309941521</v>
       </c>
       <c r="J18" s="2">
@@ -3293,8 +3388,12 @@
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.11063233131561848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>688</v>
       </c>
@@ -3302,7 +3401,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E19" s="2">
@@ -3312,11 +3411,11 @@
         <v>200</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
         <v>0.88372093023255816</v>
       </c>
       <c r="J19" s="2">
@@ -3333,8 +3432,12 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="10">
+        <f t="shared" si="5"/>
+        <v>8.3829096809085984E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>680</v>
       </c>
@@ -3342,7 +3445,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E20" s="2">
@@ -3352,11 +3455,11 @@
         <v>50</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
         <v>0.4264705882352941</v>
       </c>
       <c r="J20" s="2">
@@ -3373,8 +3476,12 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
+        <v>2.7249134948096887E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>688</v>
       </c>
@@ -3382,21 +3489,21 @@
         <v>100</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>152</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E21" s="2">
-        <v>152</v>
-      </c>
-      <c r="F21" s="2">
-        <v>100</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
         <v>0.22093023255813954</v>
       </c>
       <c r="J21" s="2">
@@ -3413,8 +3520,12 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5492157923201734E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>696</v>
       </c>
@@ -3422,7 +3533,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E22" s="2">
@@ -3432,11 +3543,11 @@
         <v>200</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
         <v>1.1954022988505748</v>
       </c>
       <c r="J22" s="2">
@@ -3453,53 +3564,398 @@
         <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="N22" s="10">
+        <f t="shared" si="5"/>
+        <v>9.1821905139384319E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>688</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="7">
         <v>100</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1060</v>
+      </c>
+      <c r="F23" s="7">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1060</v>
-      </c>
-      <c r="F23" s="2">
-        <v>200</v>
-      </c>
-      <c r="G23" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
         <v>1.5406976744186047</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="7">
         <v>250</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="7">
         <v>1000</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="7">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
+      <c r="N23" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10292725797728502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I2:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3507,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958B9409-BFC6-4100-8C0B-559A31A7DE9F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3650,11 +4106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9862ECE5-048D-44FB-B1ED-7C6073261122}">
-  <dimension ref="A2:N46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FA5FD7-56CE-4D82-A07E-C65C103A8A14}">
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,12 +4122,15 @@
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3681,8 +4140,25 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <f>0.006*B3+0.003</f>
+        <v>8.934000000000001E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>E3/B4+E4*B3/B4^2</f>
+        <v>1.815246978793579E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3692,11 +4168,32 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f>0.006*B4+0.003</f>
+        <v>8.9100000000000013E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>B3/B4</f>
+        <v>1.0040609137055838</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <f>1/B4*E3+B3/B4^2*E4</f>
+        <v>1.815246978793579E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -3727,14 +4224,14 @@
       <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>624</v>
       </c>
@@ -3763,19 +4260,19 @@
         <v>100000000</v>
       </c>
       <c r="L10" s="2">
-        <f>K10/5</f>
+        <f t="shared" ref="L10:L26" si="0">K10/5</f>
         <v>20000000</v>
       </c>
       <c r="M10" s="2">
-        <f>J10^2*L10*10^-6</f>
+        <f t="shared" ref="M10:M26" si="1">J10^2*L10*10^-6</f>
         <v>1.9999999999999998E-5</v>
       </c>
-      <c r="N10" s="19">
-        <f>1/A10*G10+E10/A10^2*C10</f>
+      <c r="N10" s="14">
+        <f t="shared" ref="N10:N26" si="2">1/A10*G10+E10/A10^2*C10</f>
         <v>0.12984878369493752</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>640</v>
       </c>
@@ -3804,19 +4301,19 @@
         <v>2500000</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:L25" si="0">K11/5</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11:M26" si="1">J11^2*L11*10^-6</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000002E-3</v>
       </c>
-      <c r="N11" s="18">
-        <f t="shared" ref="N11:N25" si="2">1/A11*G11+E11/A11^2*C11</f>
+      <c r="N11" s="10">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>640</v>
       </c>
@@ -3852,12 +4349,12 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="10">
         <f t="shared" si="2"/>
         <v>0.12421875</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>656</v>
       </c>
@@ -3893,12 +4390,12 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="10">
         <f t="shared" si="2"/>
         <v>0.11897679952409279</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>624</v>
       </c>
@@ -3934,12 +4431,12 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="10">
         <f t="shared" si="2"/>
         <v>0.1257396449704142</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>624</v>
       </c>
@@ -3975,12 +4472,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="10">
         <f t="shared" si="2"/>
         <v>0.12491781722550953</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>632</v>
       </c>
@@ -4016,7 +4513,7 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="10">
         <f t="shared" si="2"/>
         <v>0.12297708700528762</v>
       </c>
@@ -4057,7 +4554,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="10">
         <f t="shared" si="2"/>
         <v>0.11776958820701811</v>
       </c>
@@ -4098,7 +4595,7 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="10">
         <f t="shared" si="2"/>
         <v>0.102880658436214</v>
       </c>
@@ -4139,7 +4636,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="10">
         <f t="shared" si="2"/>
         <v>6.3252552964487119E-2</v>
       </c>
@@ -4180,7 +4677,7 @@
         <f t="shared" si="1"/>
         <v>45.125</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="10">
         <f t="shared" si="2"/>
         <v>5.7536960829141899E-2</v>
       </c>
@@ -4221,7 +4718,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="10">
         <f t="shared" si="2"/>
         <v>5.4774424630391706E-2</v>
       </c>
@@ -4262,7 +4759,7 @@
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="10">
         <f t="shared" si="2"/>
         <v>3.4103033074226491E-2</v>
       </c>
@@ -4303,7 +4800,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="10">
         <f t="shared" si="2"/>
         <v>3.18167962200884E-2</v>
       </c>
@@ -4344,7 +4841,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="10">
         <f t="shared" si="2"/>
         <v>2.8959000152415787E-2</v>
       </c>
@@ -4385,7 +4882,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="10">
         <f t="shared" si="2"/>
         <v>2.4386526444139613E-2</v>
       </c>
@@ -4419,15 +4916,15 @@
         <v>500</v>
       </c>
       <c r="L26" s="2">
-        <f>K26/5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N26" s="18">
-        <f>1/A26*G26+E26/A26^2*C26</f>
+      <c r="N26" s="10">
+        <f t="shared" si="2"/>
         <v>5.483254238604051E-2</v>
       </c>
     </row>
@@ -4442,109 +4939,6 @@
         <f>COUNT(E10:E26)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4554,22 +4948,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F8092-FBF0-4B0A-9B08-F3B77FB1574B}">
-  <dimension ref="A3:O52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11C0BE4-2543-4B4B-95BD-A4E75C2537F5}">
+  <dimension ref="A3:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4579,8 +4974,24 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <f>0.006*B3+0.003</f>
+        <v>6.2460000000000002E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4590,9 +5001,34 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f>0.006*B4+0.003</f>
+        <v>8.94E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>E3/B4+E4*B3/B4^2</f>
+        <v>0.15348515457606365</v>
+      </c>
+      <c r="M4">
+        <f>B3/B4</f>
+        <v>10.01010101010101</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <f>1/B4*E3+B3/B4^2*E4</f>
+        <v>0.15348515457606368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -4623,14 +5059,14 @@
       <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>200</v>
       </c>
@@ -4638,7 +5074,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/5</f>
+        <f t="shared" ref="C9:C27" si="0">B9/5</f>
         <v>10</v>
       </c>
       <c r="E9" s="2">
@@ -4648,11 +5084,11 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/5</f>
+        <f t="shared" ref="G9:G27" si="1">F9/5</f>
         <v>0.1</v>
       </c>
-      <c r="I9" s="14">
-        <f>E9/A9*1000</f>
+      <c r="I9" s="10">
+        <f t="shared" ref="I9:I27" si="2">E9/A9*1000</f>
         <v>9.3999999999999986</v>
       </c>
       <c r="J9" s="2">
@@ -4662,19 +5098,19 @@
         <v>100000000</v>
       </c>
       <c r="L9" s="2">
-        <f>K9/5</f>
+        <f t="shared" ref="L9:L27" si="3">K9/5</f>
         <v>20000000</v>
       </c>
-      <c r="M9" s="16">
-        <f>J9^2*L9*10^-6</f>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M27" si="4">J9^2*L9*10^-6</f>
         <v>1.9999999999999998E-5</v>
       </c>
-      <c r="N9" s="18">
-        <f>1/A9*G9*1000+E9*1000/A9^2*C9</f>
+      <c r="N9" s="10">
+        <f t="shared" ref="N9:N27" si="5">1/A9*G9*1000+E9*1000/A9^2*C9</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>200</v>
       </c>
@@ -4682,7 +5118,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C27" si="0">B10/5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10" s="2">
@@ -4692,11 +5128,11 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G27" si="1">F10/5</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="14">
-        <f t="shared" ref="I10:I27" si="2">E10/A10*1000</f>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="J10" s="2">
@@ -4706,19 +5142,19 @@
         <v>25000000</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ref="L10:L24" si="3">K10/5</f>
+        <f t="shared" si="3"/>
         <v>5000000</v>
       </c>
-      <c r="M10" s="16">
-        <f t="shared" ref="M10:M27" si="4">J10^2*L10*10^-6</f>
+      <c r="M10" s="12">
+        <f t="shared" si="4"/>
         <v>1.25E-4</v>
       </c>
-      <c r="N10" s="18">
-        <f t="shared" ref="N10:N27" si="5">1/A10*G10*1000+E10*1000/A10^2*C10</f>
+      <c r="N10" s="10">
+        <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -4739,7 +5175,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -4753,16 +5189,16 @@
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="12">
         <f t="shared" si="4"/>
         <v>1.9999999999999998E-4</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="10">
         <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -4783,7 +5219,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -4797,16 +5233,16 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="12">
         <f t="shared" si="4"/>
         <v>1.2500000000000002E-3</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="10">
         <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -4817,7 +5253,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>1.96</v>
       </c>
       <c r="F13" s="2">
@@ -4827,7 +5263,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="10">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -4841,16 +5277,16 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="12">
         <f t="shared" si="4"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="10">
         <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>200</v>
       </c>
@@ -4871,7 +5307,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -4885,16 +5321,16 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="12">
         <f t="shared" si="4"/>
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="10">
         <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>200</v>
       </c>
@@ -4915,7 +5351,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
@@ -4929,16 +5365,16 @@
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="12">
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="10">
         <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>208</v>
       </c>
@@ -4959,7 +5395,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>9.4230769230769234</v>
       </c>
@@ -4973,16 +5409,16 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="12">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="10">
         <f t="shared" si="5"/>
         <v>0.93380177514792906</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>210</v>
       </c>
@@ -5003,7 +5439,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="10">
         <f t="shared" si="2"/>
         <v>9.3333333333333321</v>
       </c>
@@ -5017,16 +5453,16 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="12">
         <f t="shared" si="4"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="10">
         <f t="shared" si="5"/>
         <v>0.92063492063492069</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>212</v>
       </c>
@@ -5047,7 +5483,7 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
         <v>8.1603773584905657</v>
       </c>
@@ -5061,16 +5497,16 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="12">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="10">
         <f t="shared" si="5"/>
         <v>0.85662157351370594</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>214</v>
       </c>
@@ -5091,7 +5527,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="10">
         <f t="shared" si="2"/>
         <v>7.1028037383177569</v>
       </c>
@@ -5105,16 +5541,16 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="12">
         <f t="shared" si="4"/>
         <v>5.625</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="10">
         <f t="shared" si="5"/>
         <v>0.51882260459428775</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>216</v>
       </c>
@@ -5135,7 +5571,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="10">
         <f t="shared" si="2"/>
         <v>6.1111111111111116</v>
       </c>
@@ -5149,16 +5585,16 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="12">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="10">
         <f t="shared" si="5"/>
         <v>0.46810699588477367</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>222</v>
       </c>
@@ -5179,7 +5615,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="10">
         <f t="shared" si="2"/>
         <v>2.954954954954955</v>
       </c>
@@ -5193,16 +5629,16 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="12">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="10">
         <f t="shared" si="5"/>
         <v>0.31328625923220521</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>220</v>
       </c>
@@ -5223,7 +5659,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="10">
         <f t="shared" si="2"/>
         <v>4.545454545454545</v>
       </c>
@@ -5237,16 +5673,16 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="12">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="10">
         <f t="shared" si="5"/>
         <v>0.38842975206611569</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>220</v>
       </c>
@@ -5267,7 +5703,7 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="10">
         <f t="shared" si="2"/>
         <v>3.6363636363636362</v>
       </c>
@@ -5281,16 +5717,16 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="12">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="10">
         <f t="shared" si="5"/>
         <v>0.34710743801652888</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>222</v>
       </c>
@@ -5311,7 +5747,7 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="10">
         <f t="shared" si="2"/>
         <v>1.9099099099099097</v>
       </c>
@@ -5325,20 +5761,20 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="12">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="10">
         <f t="shared" si="5"/>
         <v>0.17612206801395991</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>222</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>50</v>
       </c>
       <c r="C25" s="2">
@@ -5355,7 +5791,7 @@
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="10">
         <f t="shared" si="2"/>
         <v>1.5135135135135136</v>
       </c>
@@ -5366,107 +5802,107 @@
         <v>500</v>
       </c>
       <c r="L25" s="2">
-        <f>K25/5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="12">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="10">
         <f t="shared" si="5"/>
         <v>0.11322132943754565</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>224</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>50</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>0.05</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="10">
         <f t="shared" si="2"/>
         <v>0.9464285714285714</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <v>800</v>
       </c>
       <c r="K26" s="2">
         <v>250</v>
       </c>
-      <c r="L26" s="5">
-        <f>K26/5</f>
+      <c r="L26" s="2">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="12">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="10">
         <f t="shared" si="5"/>
         <v>8.6894132653061229E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>222</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="2">
         <v>50</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>0.05</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="10">
         <f t="shared" si="2"/>
         <v>0.77477477477477474</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <v>1000</v>
       </c>
       <c r="K27" s="2">
         <v>250</v>
       </c>
-      <c r="L27" s="5">
-        <f>K27/5</f>
+      <c r="L27" s="2">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="12">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="10">
         <f t="shared" si="5"/>
         <v>7.9944809674539402E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -5477,267 +5913,6 @@
         <f>COUNT(E9:E27)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-    </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-    </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-    </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-    </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-    </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-    </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-    </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5747,11 +5922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C6A40-A53F-450D-94F5-51593BC7A6E0}">
-  <dimension ref="A2:M76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2B5D3C-2A78-46D2-9F8F-5378457AAD6F}">
+  <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,7 +5939,7 @@
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5774,23 +5949,53 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="E2">
+        <f>B2*0.02+8</f>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <f>0.006*B3+0.003</f>
+        <v>6.2280000000000009E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3">
         <f>1/(2*PI()*B2*B4*10^-6)</f>
         <v>15.899594714475059</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3">
+        <f>1/(2*PI())*(1/((B2*10^-9)^2*(B4*10^3))*E2*10^-9+E4*10^3/(B2*10^-9*(B4*10^3)^2))</f>
+        <v>1.6858335510644604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5800,8 +6005,32 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f>0.006*B4+0.003</f>
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <f>B4/B3</f>
+        <v>10.131578947368419</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4">
+        <f>E4/B3+B4/B3^2*E3</f>
+        <v>0.12495898146175154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>1.44/0.224</f>
         <v>6.4285714285714279</v>
@@ -5821,14 +6050,20 @@
         <f>D7*0.22</f>
         <v>1.5761037991184359</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -5862,8 +6097,11 @@
       <c r="M13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>222</v>
       </c>
@@ -5871,7 +6109,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="2">
-        <f>B14/5</f>
+        <f t="shared" ref="C14:C37" si="0">B14/5</f>
         <v>10</v>
       </c>
       <c r="E14" s="2">
@@ -5881,11 +6119,11 @@
         <v>500</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/5</f>
+        <f t="shared" ref="G14:G37" si="1">F14/5</f>
         <v>100</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" ref="I14:I27" si="0">E14/A14*1000</f>
+        <f>E14/A14*1000</f>
         <v>9.3693693693693696</v>
       </c>
       <c r="J14" s="2">
@@ -5895,15 +6133,19 @@
         <v>100</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" ref="L14:L29" si="1">K14/5</f>
+        <f t="shared" ref="L14:L37" si="2">K14/5</f>
         <v>20</v>
       </c>
-      <c r="M14" s="12">
-        <f t="shared" ref="M14:M37" si="2">J14^2*L14*10^-6</f>
-        <v>1.9999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="9">
+        <f>J14^2*L14*10^-3</f>
+        <v>0.02</v>
+      </c>
+      <c r="N14" s="10">
+        <f>1/A14*G14+E14*1000/A14^2*C14</f>
+        <v>0.87249411573735902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>220</v>
       </c>
@@ -5911,7 +6153,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:C37" si="3">B15/5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E15" s="2">
@@ -5921,1177 +6163,1018 @@
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" ref="G15:G37" si="4">F15/5</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I15:I37" si="3">E15/A15*1000</f>
         <v>9.2727272727272734</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="2">
+        <v>250</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" ref="M15:M37" si="4">J15^2*L15*10^-3</f>
+        <v>0.45</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" ref="N15:N37" si="5">1/A15*G15+E15*1000/A15^2*C15</f>
+        <v>0.87603305785123964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="F16" s="2">
+        <v>500</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L15" s="2">
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9189189189189175</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>250</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="5"/>
+        <v>0.85220355490625765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>222</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="F17" s="2">
+        <v>500</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>8.468468468468469</v>
+      </c>
+      <c r="J17" s="2">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2">
+        <v>250</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="4"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.83191299407515618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>222</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="F18" s="2">
+        <v>500</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1531531531531538</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>250</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="4"/>
+        <v>4.05</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.81770960149338534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="F19" s="2">
+        <v>500</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>7.9279279279279287</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.8075643210778346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="F20" s="2">
+        <v>500</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7027027027027026</v>
+      </c>
+      <c r="J20" s="2">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
+        <v>0.79741904066228386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="F21" s="2">
+        <v>500</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>7.4324324324324316</v>
+      </c>
+      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.78524470416362302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>222</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="F22" s="2">
+        <v>500</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2522522522522523</v>
+      </c>
+      <c r="J22" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.77712847983118249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="F23" s="2">
+        <v>500</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0270270270270272</v>
+      </c>
+      <c r="J23" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76698319941563187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="F24" s="2">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>6.8918918918918921</v>
+      </c>
+      <c r="J24" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.40898000000000001</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.49062576089603116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>200</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="J25" s="2">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="5"/>
+        <v>0.48453859264670074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>222</v>
+      </c>
+      <c r="B26" s="2">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>6.576576576576576</v>
+      </c>
+      <c r="J26" s="2">
+        <v>16</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.47642236831426016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>222</v>
+      </c>
+      <c r="B27" s="2">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8108108108108114</v>
+      </c>
+      <c r="J27" s="2">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.44192841490138784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>222</v>
+      </c>
+      <c r="B28" s="2">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="F28" s="2">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3243243243243246</v>
+      </c>
+      <c r="J28" s="2">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="4"/>
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.37496956415875338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>200</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4594594594594592</v>
+      </c>
+      <c r="J29" s="2">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.33601168736303871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>208</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F30" s="2">
+        <v>200</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="J30" s="2">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.34023668639053251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>208</v>
+      </c>
+      <c r="B31" s="2">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M15" s="12">
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1346153846153846</v>
+      </c>
+      <c r="J31" s="2">
+        <v>75</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>1.7999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>222</v>
-      </c>
-      <c r="B16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.19877958579881658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>208</v>
+      </c>
+      <c r="B32" s="2">
         <v>50</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="3"/>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E16" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="F16" s="2">
-        <v>500</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="4"/>
+      <c r="E32" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F32" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9189189189189175</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2">
-        <v>100</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M16" s="12">
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6250000000000002</v>
+      </c>
+      <c r="J32" s="2">
+        <v>100</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>222</v>
-      </c>
-      <c r="B17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17427884615384615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>208</v>
+      </c>
+      <c r="B33" s="2">
         <v>50</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="3"/>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="2">
-        <v>1.88</v>
-      </c>
-      <c r="F17" s="2">
-        <v>500</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.468468468468469</v>
-      </c>
-      <c r="J17" s="2">
-        <v>7</v>
-      </c>
-      <c r="K17" s="2">
-        <v>100</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M17" s="12">
-        <f t="shared" si="2"/>
-        <v>9.7999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>222</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="E33" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F33" s="2">
         <v>50</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.81</v>
-      </c>
-      <c r="F18" s="2">
-        <v>500</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1531531531531538</v>
-      </c>
-      <c r="J18" s="2">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2">
-        <v>100</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M18" s="12">
-        <f t="shared" si="2"/>
-        <v>1.6199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>222</v>
-      </c>
-      <c r="B19" s="2">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="F19" s="2">
-        <v>500</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9279279279279287</v>
-      </c>
-      <c r="J19" s="2">
-        <v>10</v>
-      </c>
-      <c r="K19" s="2">
-        <v>50</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M19" s="12">
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>1.096153846153846</v>
+      </c>
+      <c r="J33" s="2">
+        <v>150</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.10077662721893491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>208</v>
+      </c>
+      <c r="B34" s="2">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56730769230769229</v>
+      </c>
+      <c r="J34" s="2">
+        <v>300</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="5"/>
+        <v>7.5351331360946752E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>204</v>
+      </c>
+      <c r="B35" s="2">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="J35" s="2">
+        <v>500</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5947712418300651E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>204</v>
+      </c>
+      <c r="B36" s="2">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17254901960784316</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8066128412149172E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>208</v>
+      </c>
+      <c r="B37" s="2">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8461538461538466E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L37" s="2">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>222</v>
-      </c>
-      <c r="B20" s="2">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="F20" s="2">
-        <v>500</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>7.7027027027027026</v>
-      </c>
-      <c r="J20" s="2">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2">
-        <v>50</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M20" s="12">
-        <f t="shared" si="2"/>
-        <v>1.2099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>222</v>
-      </c>
-      <c r="B21" s="2">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="F21" s="2">
-        <v>500</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4324324324324316</v>
-      </c>
-      <c r="J21" s="2">
-        <v>12</v>
-      </c>
-      <c r="K21" s="2">
-        <v>50</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M21" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>222</v>
-      </c>
-      <c r="B22" s="2">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.61</v>
-      </c>
-      <c r="F22" s="2">
-        <v>500</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2522522522522523</v>
-      </c>
-      <c r="J22" s="2">
-        <v>13</v>
-      </c>
-      <c r="K22" s="2">
-        <v>50</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M22" s="12">
-        <f t="shared" si="2"/>
-        <v>1.6899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>222</v>
-      </c>
-      <c r="B23" s="2">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="F23" s="2">
-        <v>500</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0270270270270272</v>
-      </c>
-      <c r="J23" s="2">
-        <v>14</v>
-      </c>
-      <c r="K23" s="2">
-        <v>50</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M23" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9599999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>222</v>
-      </c>
-      <c r="B24" s="2">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="F24" s="2">
-        <v>200</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8918918918918921</v>
-      </c>
-      <c r="J24" s="2">
-        <v>14.3</v>
-      </c>
-      <c r="K24" s="2">
-        <v>50</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M24" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0449000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>222</v>
-      </c>
-      <c r="B25" s="2">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>200</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>6.756756756756757</v>
-      </c>
-      <c r="J25" s="2">
-        <v>15</v>
-      </c>
-      <c r="K25" s="2">
-        <v>50</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M25" s="12">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>222</v>
-      </c>
-      <c r="B26" s="2">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.46</v>
-      </c>
-      <c r="F26" s="2">
-        <v>200</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>6.576576576576576</v>
-      </c>
-      <c r="J26" s="2">
-        <v>16</v>
-      </c>
-      <c r="K26" s="2">
-        <v>50</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="12">
-        <f t="shared" si="2"/>
-        <v>2.5599999999999998E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>222</v>
-      </c>
-      <c r="B27" s="2">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="F27" s="2">
-        <v>200</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8108108108108114</v>
-      </c>
-      <c r="J27" s="2">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2">
-        <v>50</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M27" s="12">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>222</v>
-      </c>
-      <c r="B28" s="2">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="F28" s="2">
-        <v>200</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" ref="I28:I37" si="5">E28/A28*1000</f>
-        <v>4.3243243243243246</v>
-      </c>
-      <c r="J28" s="2">
-        <v>31</v>
-      </c>
-      <c r="K28" s="2">
-        <v>50</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M28" s="12">
-        <f t="shared" si="2"/>
-        <v>9.6099999999999988E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>222</v>
-      </c>
-      <c r="B29" s="2">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="F29" s="2">
-        <v>200</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="5"/>
-        <v>3.4594594594594592</v>
-      </c>
-      <c r="J29" s="2">
-        <v>40</v>
-      </c>
-      <c r="K29" s="2">
-        <v>25</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M29" s="12">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>208</v>
-      </c>
-      <c r="B30" s="2">
-        <v>50</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F30" s="2">
-        <v>200</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="5"/>
-        <v>3.0769230769230771</v>
-      </c>
-      <c r="J30" s="2">
-        <v>50</v>
-      </c>
-      <c r="K30" s="2">
-        <v>25</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" ref="L30:L37" si="6">K30/5</f>
-        <v>5</v>
-      </c>
-      <c r="M30" s="12">
-        <f t="shared" si="2"/>
-        <v>1.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>208</v>
-      </c>
-      <c r="B31" s="5">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F31" s="5">
-        <v>100</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="5"/>
-        <v>2.1346153846153846</v>
-      </c>
-      <c r="J31" s="5">
-        <v>75</v>
-      </c>
-      <c r="K31" s="2">
-        <v>25</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M31" s="13">
-        <f t="shared" si="2"/>
-        <v>2.8124999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>208</v>
-      </c>
-      <c r="B32" s="5">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F32" s="5">
-        <v>100</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6250000000000002</v>
-      </c>
-      <c r="J32" s="5">
-        <v>100</v>
-      </c>
-      <c r="K32" s="2">
-        <v>25</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M32" s="13">
-        <f t="shared" si="2"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>208</v>
-      </c>
-      <c r="B33" s="5">
-        <v>50</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F33" s="5">
-        <v>50</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="5"/>
-        <v>1.096153846153846</v>
-      </c>
-      <c r="J33" s="5">
-        <v>150</v>
-      </c>
-      <c r="K33" s="2">
-        <v>10</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M33" s="13">
-        <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>208</v>
-      </c>
-      <c r="B34" s="5">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="F34" s="5">
-        <v>50</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="5"/>
-        <v>0.56730769230769229</v>
-      </c>
-      <c r="J34" s="5">
-        <v>300</v>
-      </c>
-      <c r="K34" s="2">
-        <v>10</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M34" s="13">
-        <f t="shared" si="2"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>204</v>
-      </c>
-      <c r="B35" s="5">
-        <v>50</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E35" s="5">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F35" s="5">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="M37" s="9">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I35" s="2">
+      <c r="N37" s="10">
         <f t="shared" si="5"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="J35" s="5">
-        <v>500</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="M35" s="13">
-        <f t="shared" si="2"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>204</v>
-      </c>
-      <c r="B36" s="5">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E36" s="5">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="F36" s="5">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="5"/>
-        <v>0.17254901960784316</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="M36" s="13">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>208</v>
-      </c>
-      <c r="B37" s="5">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1.84E-2</v>
-      </c>
-      <c r="F37" s="5">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="5"/>
-        <v>8.8461538461538466E-2</v>
-      </c>
-      <c r="J37" s="5">
-        <v>2000</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="M37" s="13">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
+        <v>2.348372781065089E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478B1CDB-46D0-468A-BDAD-BD6BE7EF1865}">
-  <dimension ref="C2:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557A69AE-247B-482D-B186-CE96C6148436}">
+  <dimension ref="C2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>27</v>
       </c>
@@ -7104,8 +7187,18 @@
       <c r="J2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2">
+        <f>0.006*I2+0.003</f>
+        <v>8.9219999999999994E-3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -7113,15 +7206,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="6">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>14.82</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>0.7</v>
       </c>
@@ -7129,7 +7222,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.488</v>
       </c>
@@ -7137,7 +7230,7 @@
         <v>-0.629</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2.3340000000000001</v>
       </c>
@@ -7145,7 +7238,7 @@
         <v>-0.65200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3.0390000000000001</v>
       </c>
@@ -7153,7 +7246,7 @@
         <v>-0.66500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -7161,7 +7254,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>4.42</v>
       </c>
@@ -7169,7 +7262,7 @@
         <v>-0.68500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>5.05</v>
       </c>
@@ -7177,7 +7270,7 @@
         <v>-0.69099999999999995</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>6.01</v>
       </c>
@@ -7185,7 +7278,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>7.04</v>
       </c>
@@ -7193,7 +7286,7 @@
         <v>-0.70899999999999996</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>8.1300000000000008</v>
       </c>
@@ -7259,15 +7352,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F8BA2-A37E-4443-B49B-2F2AF41589F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097B993E-5792-4A5B-9239-94985E7ADF65}">
   <dimension ref="A3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D3" sqref="D3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,9 +7395,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>1/RADQ(2)*B4/B3</f>
-        <v>1.4263927065272706</v>
+      <c r="B7" t="e">
+        <f ca="1">1/RADQ(2)*B4/B3</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7409,7 +7503,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
